--- a/FH/Python/DAQ/UE06/bestsellerdata/ABA Bestsellers 02-21-18.xlsx
+++ b/FH/Python/DAQ/UE06/bestsellerdata/ABA Bestsellers 02-21-18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmcedward\Desktop\MAESTRO\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\Development\FH\Python\DAQ\UE06\bestsellerdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA1B8B-1935-4A8D-A546-326408F6F032}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C081A2-4116-4903-8F2D-CB2C5BE5F81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13650" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13815" yWindow="5085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trade Paperback Fiction" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,20 @@
     <sheet name="Early &amp; Middle" sheetId="6" r:id="rId6"/>
     <sheet name="Young Adult" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,51 +134,6 @@
     <t>7/33</t>
   </si>
   <si>
-    <t>Lincoln in the Bardo | George Saunders $17.00, ISBN: 9780812985405</t>
-  </si>
-  <si>
-    <t>The Underground Railroad | Colson Whitehead $16.95, ISBN: 9780345804327</t>
-  </si>
-  <si>
-    <t>Beartown | Fredrik Backman $17.00, ISBN: 9781501160776</t>
-  </si>
-  <si>
-    <t>Pachinko | Min Jin Lee $15.99, ISBN: 9781455563920</t>
-  </si>
-  <si>
-    <t>The Woman in Cabin 10 | Ruth Ware $16.00, ISBN: 9781501132957</t>
-  </si>
-  <si>
-    <t>All the Light We Cannot See | Anthony Doerr $17.00, ISBN: 9781501173219</t>
-  </si>
-  <si>
-    <t>We Were the Lucky Ones | Georgia Hunter $16.00, ISBN: 9780399563096</t>
-  </si>
-  <si>
-    <t>Ready Player One | Ernest Cline $16.00, ISBN: 9780804190138</t>
-  </si>
-  <si>
-    <t>The Women in the Castle | Jessica Shattuck $16.99, ISBN: 9780062563675</t>
-  </si>
-  <si>
-    <t>The Handmaid's Tale | Margaret Atwood $15.95, ISBN: 9780525435006</t>
-  </si>
-  <si>
-    <t>The Sun and Her Flowers | Rupi Kaur $16.99, ISBN: 9781449486792</t>
-  </si>
-  <si>
-    <t>Call Me by Your Name | Andre Aciman $17.00, ISBN: 9781250169440</t>
-  </si>
-  <si>
-    <t>Milk and Honey | Rupi Kaur $14.99, ISBN: 9781449474256</t>
-  </si>
-  <si>
-    <t>The Couple Next Door | Shari Lapena $16.00, ISBN: 9780735221109</t>
-  </si>
-  <si>
-    <t>The Perfect Nanny | Leila Slimani $16.00, ISBN: 9780143132172</t>
-  </si>
-  <si>
     <t>You Are a Badass | Jen Sincero $16.00 | ISBN: 9780762447695</t>
   </si>
   <si>
@@ -419,6 +387,51 @@
   </si>
   <si>
     <t>Dear Martin | Nic Stone $17.99 | ISBN: 9781101939499</t>
+  </si>
+  <si>
+    <t>Lincoln in the Bardo | George Saunders $17.00 | ISBN: 9780812985405</t>
+  </si>
+  <si>
+    <t>The Underground Railroad | Colson Whitehead $16.95 | ISBN: 9780345804327</t>
+  </si>
+  <si>
+    <t>Beartown | Fredrik Backman $17.00 | ISBN: 9781501160776</t>
+  </si>
+  <si>
+    <t>Pachinko | Min Jin Lee $15.99 | ISBN: 9781455563920</t>
+  </si>
+  <si>
+    <t>The Woman in Cabin 10 | Ruth Ware $16.00 | ISBN: 9781501132957</t>
+  </si>
+  <si>
+    <t>All the Light We Cannot See | Anthony Doerr $17.00 | ISBN: 9781501173219</t>
+  </si>
+  <si>
+    <t>We Were the Lucky Ones | Georgia Hunter $16.00 | ISBN: 9780399563096</t>
+  </si>
+  <si>
+    <t>Ready Player One | Ernest Cline $16.00 | ISBN: 9780804190138</t>
+  </si>
+  <si>
+    <t>The Women in the Castle | Jessica Shattuck $16.99 | ISBN: 9780062563675</t>
+  </si>
+  <si>
+    <t>The Handmaid's Tale | Margaret Atwood $15.95 | ISBN: 9780525435006</t>
+  </si>
+  <si>
+    <t>The Sun and Her Flowers | Rupi Kaur $16.99 | ISBN: 9781449486792</t>
+  </si>
+  <si>
+    <t>Call Me by Your Name | Andre Aciman $17.00 | ISBN: 9781250169440</t>
+  </si>
+  <si>
+    <t>Milk and Honey | Rupi Kaur $14.99 | ISBN: 9781449474256</t>
+  </si>
+  <si>
+    <t>The Couple Next Door | Shari Lapena $16.00 | ISBN: 9780735221109</t>
+  </si>
+  <si>
+    <t>The Perfect Nanny | Leila Slimani $16.00 | ISBN: 9780143132172</t>
   </si>
 </sst>
 </file>
@@ -475,8 +488,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -490,10 +503,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -801,8 +810,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
+      <c r="B2" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="4">
         <v>43133</v>
@@ -812,8 +821,8 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
+      <c r="B3" t="s">
+        <v>117</v>
       </c>
       <c r="C3" s="4">
         <v>43103</v>
@@ -823,8 +832,8 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
+      <c r="B4" t="s">
+        <v>118</v>
       </c>
       <c r="C4" s="4">
         <v>43283</v>
@@ -834,8 +843,8 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
+      <c r="B5" t="s">
+        <v>119</v>
       </c>
       <c r="C5" s="4">
         <v>43173</v>
@@ -845,8 +854,8 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
+      <c r="B6" t="s">
+        <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -856,8 +865,8 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
+      <c r="B7" t="s">
+        <v>121</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -867,8 +876,8 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
+      <c r="B8" t="s">
+        <v>122</v>
       </c>
       <c r="C8" s="4">
         <v>43258</v>
@@ -878,8 +887,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
+      <c r="B9" t="s">
+        <v>123</v>
       </c>
       <c r="C9" s="4">
         <v>43375</v>
@@ -889,8 +898,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
+      <c r="B10" t="s">
+        <v>124</v>
       </c>
       <c r="C10" s="4">
         <v>43197</v>
@@ -900,8 +909,8 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>40</v>
+      <c r="B11" t="s">
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
@@ -911,8 +920,8 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>41</v>
+      <c r="B12" t="s">
+        <v>126</v>
       </c>
       <c r="C12" s="4">
         <v>43454</v>
@@ -922,8 +931,8 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
+      <c r="B13" t="s">
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -933,8 +942,8 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>43</v>
+      <c r="B14" t="s">
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -944,8 +953,8 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>44</v>
+      <c r="B15" t="s">
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
@@ -955,8 +964,8 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>45</v>
+      <c r="B16" t="s">
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
@@ -971,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -995,8 +1004,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>46</v>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1006,8 +1015,8 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>47</v>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="4">
         <v>43143</v>
@@ -1017,8 +1026,8 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>48</v>
+      <c r="B4" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="4">
         <v>43167</v>
@@ -1028,8 +1037,8 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>49</v>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -1039,8 +1048,8 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>50</v>
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>43244</v>
@@ -1050,8 +1059,8 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>51</v>
+      <c r="B7" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -1061,8 +1070,8 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>52</v>
+      <c r="B8" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -1072,8 +1081,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>53</v>
+      <c r="B9" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -1083,8 +1092,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
+      <c r="B10" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1094,8 +1103,8 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>55</v>
+      <c r="B11" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -1105,8 +1114,8 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>56</v>
+      <c r="B12" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="4">
         <v>43274</v>
@@ -1116,8 +1125,8 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>57</v>
+      <c r="B13" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="4">
         <v>43407</v>
@@ -1127,8 +1136,8 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>58</v>
+      <c r="B14" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <v>43389</v>
@@ -1138,8 +1147,8 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>59</v>
+      <c r="B15" t="s">
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -1149,8 +1158,8 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>60</v>
+      <c r="B16" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
@@ -1189,8 +1198,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>61</v>
+      <c r="B2" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="4">
         <v>43133</v>
@@ -1200,8 +1209,8 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>62</v>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="4">
         <v>43102</v>
@@ -1211,8 +1220,8 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>63</v>
+      <c r="B4" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="4">
         <v>43166</v>
@@ -1222,8 +1231,8 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>64</v>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="4">
         <v>43274</v>
@@ -1233,8 +1242,8 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>65</v>
+      <c r="B6" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -1244,8 +1253,8 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>66</v>
+      <c r="B7" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="4">
         <v>43226</v>
@@ -1255,8 +1264,8 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>67</v>
+      <c r="B8" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="4">
         <v>43301</v>
@@ -1266,8 +1275,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>68</v>
+      <c r="B9" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="4">
         <v>43363</v>
@@ -1277,8 +1286,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>69</v>
+      <c r="B10" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="4">
         <v>43315</v>
@@ -1288,8 +1297,8 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>70</v>
+      <c r="B11" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="4">
         <v>43411</v>
@@ -1299,8 +1308,8 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>71</v>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -1310,8 +1319,8 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>72</v>
+      <c r="B13" t="s">
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -1321,8 +1330,8 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>73</v>
+      <c r="B14" t="s">
+        <v>58</v>
       </c>
       <c r="C14" s="4">
         <v>43379</v>
@@ -1332,8 +1341,8 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>74</v>
+      <c r="B15" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="4">
         <v>43451</v>
@@ -1343,8 +1352,8 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>75</v>
+      <c r="B16" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -1383,8 +1392,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>76</v>
+      <c r="B2" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="4">
         <v>43107</v>
@@ -1394,8 +1403,8 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>77</v>
+      <c r="B3" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
@@ -1405,8 +1414,8 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>78</v>
+      <c r="B4" t="s">
+        <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
@@ -1416,8 +1425,8 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>79</v>
+      <c r="B5" t="s">
+        <v>64</v>
       </c>
       <c r="C5" s="4">
         <v>43254</v>
@@ -1427,8 +1436,8 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>80</v>
+      <c r="B6" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="4">
         <v>43228</v>
@@ -1438,8 +1447,8 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>81</v>
+      <c r="B7" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -1449,8 +1458,8 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>82</v>
+      <c r="B8" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="4">
         <v>43208</v>
@@ -1460,8 +1469,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>83</v>
+      <c r="B9" t="s">
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -1471,8 +1480,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>84</v>
+      <c r="B10" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
@@ -1482,8 +1491,8 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>85</v>
+      <c r="B11" t="s">
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>29</v>
@@ -1493,8 +1502,8 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>86</v>
+      <c r="B12" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="4">
         <v>43321</v>
@@ -1504,8 +1513,8 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>87</v>
+      <c r="B13" t="s">
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
@@ -1515,8 +1524,8 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>88</v>
+      <c r="B14" t="s">
+        <v>73</v>
       </c>
       <c r="C14" s="4">
         <v>43377</v>
@@ -1526,8 +1535,8 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>89</v>
+      <c r="B15" t="s">
+        <v>74</v>
       </c>
       <c r="C15" s="4">
         <v>43356</v>
@@ -1537,8 +1546,8 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>90</v>
+      <c r="B16" t="s">
+        <v>75</v>
       </c>
       <c r="C16" s="4">
         <v>43440</v>
@@ -1577,8 +1586,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>91</v>
+      <c r="B2" t="s">
+        <v>76</v>
       </c>
       <c r="C2" s="4">
         <v>43107</v>
@@ -1588,8 +1597,8 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>92</v>
+      <c r="B3" t="s">
+        <v>77</v>
       </c>
       <c r="C3" s="4">
         <v>43133</v>
@@ -1599,8 +1608,8 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>93</v>
+      <c r="B4" t="s">
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -1610,8 +1619,8 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>94</v>
+      <c r="B5" t="s">
+        <v>79</v>
       </c>
       <c r="C5" s="4">
         <v>43232</v>
@@ -1621,8 +1630,8 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>95</v>
+      <c r="B6" t="s">
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
@@ -1632,8 +1641,8 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>96</v>
+      <c r="B7" t="s">
+        <v>81</v>
       </c>
       <c r="C7" s="4">
         <v>43198</v>
@@ -1643,8 +1652,8 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>97</v>
+      <c r="B8" t="s">
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
@@ -1654,8 +1663,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>98</v>
+      <c r="B9" t="s">
+        <v>83</v>
       </c>
       <c r="C9" s="4">
         <v>43350</v>
@@ -1665,8 +1674,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>99</v>
+      <c r="B10" t="s">
+        <v>84</v>
       </c>
       <c r="C10" s="4">
         <v>43285</v>
@@ -1676,8 +1685,8 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>100</v>
+      <c r="B11" t="s">
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>25</v>
@@ -1716,134 +1725,134 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="6"/>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="6"/>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="6"/>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="6"/>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="6"/>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="6"/>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="6"/>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="6"/>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>115</v>
+      <c r="B16" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1855,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1876,134 +1885,134 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="6"/>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="6"/>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="6"/>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="6"/>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="6"/>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="6"/>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="6"/>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="6"/>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>130</v>
+      <c r="B16" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
